--- a/moyusi/Keywords/Web/我的门店-订单.xlsx
+++ b/moyusi/Keywords/Web/我的门店-订单.xlsx
@@ -2292,10 +2292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传-调用autoit上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2401,6 +2397,9 @@
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -2861,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E354" sqref="E354"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -7519,13 +7518,13 @@
         <v>18</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E354" s="16" t="s">
         <v>289</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="17.25" customHeight="1">
@@ -9526,10 +9525,10 @@
       </c>
       <c r="B510" s="11"/>
       <c r="D510" t="s">
+        <v>548</v>
+      </c>
+      <c r="E510" s="39" t="s">
         <v>520</v>
-      </c>
-      <c r="E510" s="39" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="511" spans="1:6" customFormat="1">
@@ -9543,12 +9542,12 @@
         <v>0</v>
       </c>
       <c r="E511" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="512" spans="1:6" customFormat="1">
       <c r="A512" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B512" s="11" t="s">
         <v>503</v>
@@ -9557,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="D512" t="s">
+        <v>523</v>
+      </c>
+      <c r="E512" s="39" t="s">
         <v>524</v>
-      </c>
-      <c r="E512" s="39" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="513" spans="1:6" customFormat="1">
@@ -9568,30 +9567,30 @@
         <v>12</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
       <c r="E513" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="514" spans="1:6" customFormat="1">
       <c r="A514" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B514" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C514">
         <v>0</v>
       </c>
       <c r="D514" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E514" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="515" spans="1:6" customFormat="1">
@@ -9599,25 +9598,25 @@
         <v>12</v>
       </c>
       <c r="B515" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C515">
         <v>2</v>
       </c>
       <c r="E515" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="516" spans="1:6" s="41" customFormat="1">
       <c r="A516" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B516" s="40"/>
       <c r="D516" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E516" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -9630,7 +9629,7 @@
     </row>
     <row r="518" spans="1:6" s="43" customFormat="1">
       <c r="A518" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D518" s="44"/>
       <c r="E518" s="8"/>
@@ -9640,11 +9639,11 @@
         <v>16</v>
       </c>
       <c r="B519" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D519" s="20"/>
       <c r="E519" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F519" s="20"/>
     </row>
@@ -9653,11 +9652,11 @@
         <v>16</v>
       </c>
       <c r="B520" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D520" s="20"/>
       <c r="E520" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F520" s="20"/>
     </row>
@@ -9666,13 +9665,13 @@
         <v>95</v>
       </c>
       <c r="B521" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D521" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="D521" s="20" t="s">
-        <v>534</v>
-      </c>
       <c r="E521" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F521" s="20"/>
     </row>
@@ -9681,11 +9680,11 @@
         <v>96</v>
       </c>
       <c r="B522" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D522" s="22"/>
       <c r="E522" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F522" s="23"/>
     </row>
@@ -9694,11 +9693,11 @@
         <v>16</v>
       </c>
       <c r="B523" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D523" s="22"/>
       <c r="E523" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F523" s="23"/>
     </row>

--- a/moyusi/Keywords/Web/我的门店-订单.xlsx
+++ b/moyusi/Keywords/Web/我的门店-订单.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="576">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2354,14 +2354,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击-提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id不包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='quill-editor']/div[2]/div[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-案例说明输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入，案例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-scrollbar</t>
+  </si>
+  <si>
+    <t>//*[@class ='el-scrollbar']/div[1]/ul[1]/li[1]/span</t>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-收款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//*[@class='opeartion']/button[2]/span</t>
-  </si>
-  <si>
-    <t>点击-提交按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_id不包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-案例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-案例概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='opeartion']/button[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[1]/td[6]/div/div/button[1]/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[1]/td[6]/div/div/button[2]/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前案例为发布状态,不可被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if元素存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[1]/td[6]/div/div/button[3]/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-撤回按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2369,37 +2487,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='quill-editor']/div[2]/div[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-案例说明输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入，案例说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-scrollbar</t>
-  </si>
-  <si>
-    <t>//*[@class ='el-scrollbar']/div[1]/ul[1]/li[1]/span</t>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>if结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此操作将永久删除该案例, 是否继续?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此操作将永久删除该案例, 是否继续?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-删除提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-message-box__btns']/button[2]/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2522,7 +2631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2578,6 +2687,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2858,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D510" sqref="D510"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B539" sqref="B539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -7275,13 +7385,13 @@
         <v>18</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>278</v>
+        <v>549</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>274</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7340,13 +7450,13 @@
         <v>18</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>281</v>
+        <v>550</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
       <c r="F340" s="16" t="s">
-        <v>281</v>
+        <v>551</v>
       </c>
     </row>
     <row r="341" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
@@ -7518,13 +7628,13 @@
         <v>18</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E354" s="16" t="s">
         <v>289</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="17.25" customHeight="1">
@@ -9525,7 +9635,7 @@
       </c>
       <c r="B510" s="11"/>
       <c r="D510" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E510" s="39" t="s">
         <v>520</v>
@@ -9567,7 +9677,7 @@
         <v>12</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -9598,7 +9708,7 @@
         <v>12</v>
       </c>
       <c r="B515" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C515">
         <v>2</v>
@@ -9609,11 +9719,11 @@
     </row>
     <row r="516" spans="1:6" s="41" customFormat="1">
       <c r="A516" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B516" s="40"/>
       <c r="D516" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E516" s="42" t="s">
         <v>530</v>
@@ -9629,7 +9739,7 @@
     </row>
     <row r="518" spans="1:6" s="43" customFormat="1">
       <c r="A518" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D518" s="44"/>
       <c r="E518" s="8"/>
@@ -9639,7 +9749,7 @@
         <v>16</v>
       </c>
       <c r="B519" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D519" s="20"/>
       <c r="E519" s="39" t="s">
@@ -9652,11 +9762,11 @@
         <v>16</v>
       </c>
       <c r="B520" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D520" s="20"/>
       <c r="E520" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F520" s="20"/>
     </row>
@@ -9671,7 +9781,7 @@
         <v>533</v>
       </c>
       <c r="E521" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F521" s="20"/>
     </row>
@@ -9693,11 +9803,11 @@
         <v>16</v>
       </c>
       <c r="B523" s="21" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D523" s="22"/>
       <c r="E523" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F523" s="23"/>
     </row>
@@ -9714,13 +9824,18 @@
       </c>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" ht="16.5" customHeight="1">
       <c r="A525" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E525" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D525" s="20"/>
+      <c r="E525" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F525" s="20"/>
     </row>
     <row r="526" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A526" s="8" t="s">
@@ -9735,159 +9850,330 @@
       </c>
       <c r="F526" s="10"/>
     </row>
-    <row r="527" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A527" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C527" s="1">
-        <v>5</v>
+    <row r="527" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D527" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="E527" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A528" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B528" s="9">
-        <v>5000</v>
-      </c>
-      <c r="D528" s="15"/>
-      <c r="E528" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F528" s="10"/>
-    </row>
-    <row r="529" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A529" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E529" s="5" t="s">
-        <v>459</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="F527" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A528" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D528" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F528" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A529" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B529" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D529" s="22"/>
+      <c r="E529" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F529" s="23"/>
     </row>
     <row r="530" spans="1:6" ht="17.25" customHeight="1">
       <c r="A530" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D530" s="16" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="E530" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A531" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F530" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A531" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B531" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D531" s="22"/>
+      <c r="E531" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F531" s="23"/>
+    </row>
+    <row r="532" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A532" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B531" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D531" s="15"/>
-      <c r="E531" s="8" t="s">
+      <c r="B532" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D532" s="15"/>
+      <c r="E532" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F531" s="10"/>
-    </row>
-    <row r="532" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A532" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E532" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" ht="17.25" customHeight="1">
+      <c r="F532" s="10"/>
+    </row>
+    <row r="533" spans="1:6" ht="16.5" customHeight="1">
       <c r="A533" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D533" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="E533" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A534" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B534" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D534" s="15"/>
-      <c r="E534" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F534" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B533" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D533" s="20"/>
+      <c r="E533" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="F533" s="20"/>
+    </row>
+    <row r="534" spans="1:6" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A534" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="B534" s="40"/>
+      <c r="D534" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="E534" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="F534" s="45"/>
     </row>
     <row r="535" spans="1:6" ht="16.5" customHeight="1">
       <c r="A535" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E535" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B535" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D535" s="20"/>
+      <c r="E535" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="F535" s="20"/>
+    </row>
+    <row r="536" spans="1:6" ht="16.5" customHeight="1">
       <c r="A536" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D536" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="E536" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A537" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C537" s="1">
-        <v>6</v>
-      </c>
-      <c r="E537" s="5" t="s">
-        <v>500</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B536" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D536" s="20"/>
+      <c r="E536" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="F536" s="20"/>
+    </row>
+    <row r="537" spans="1:6" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A537" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B537" s="40"/>
+      <c r="D537" s="45"/>
+      <c r="E537" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="F537" s="45"/>
     </row>
     <row r="538" spans="1:6" ht="17.25" customHeight="1">
       <c r="A538" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D538" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F538" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A539" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B539" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="D539" s="20"/>
+      <c r="E539" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="F539" s="20"/>
+    </row>
+    <row r="540" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A540" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C540" s="1">
+        <v>5</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A541" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D541" s="15"/>
+      <c r="E541" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F541" s="10"/>
+    </row>
+    <row r="542" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A542" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A543" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D543" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="E538" s="5" t="s">
+      <c r="E543" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F538" s="1" t="s">
+      <c r="F543" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A544" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B544" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D544" s="15"/>
+      <c r="E544" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F544" s="10"/>
+    </row>
+    <row r="545" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A545" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D546" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A547" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B547" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D547" s="15"/>
+      <c r="E547" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F547" s="10"/>
+    </row>
+    <row r="548" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A548" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A549" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D549" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A550" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C550" s="1">
+        <v>6</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A551" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D551" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F551" s="1" t="s">
         <v>494</v>
       </c>
     </row>

--- a/moyusi/Keywords/Web/我的门店-订单.xlsx
+++ b/moyusi/Keywords/Web/我的门店-订单.xlsx
@@ -2396,9 +2396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-  </si>
-  <si>
     <t>收款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2509,6 +2506,9 @@
   <si>
     <t>//*[@class='el-message-box__btns']/button[2]/span[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B539" sqref="B539"/>
+    <sheetView tabSelected="1" topLeftCell="A489" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -7385,13 +7385,13 @@
         <v>18</v>
       </c>
       <c r="D335" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="E335" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E335" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="F335" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7450,13 +7450,13 @@
         <v>18</v>
       </c>
       <c r="D340" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F340" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="E340" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F340" s="16" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="341" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B510" s="11"/>
       <c r="D510" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E510" s="39" t="s">
         <v>520</v>
@@ -9803,7 +9803,7 @@
         <v>16</v>
       </c>
       <c r="B523" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D523" s="22"/>
       <c r="E523" s="12" t="s">
@@ -9829,7 +9829,7 @@
         <v>16</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D525" s="20"/>
       <c r="E525" s="39" t="s">
@@ -9869,13 +9869,13 @@
         <v>18</v>
       </c>
       <c r="D528" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F528" s="16" t="s">
         <v>554</v>
-      </c>
-      <c r="E528" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="F528" s="16" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="529" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
@@ -9896,13 +9896,13 @@
         <v>18</v>
       </c>
       <c r="D530" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F530" s="16" t="s">
         <v>557</v>
-      </c>
-      <c r="E530" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="F530" s="16" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="531" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1">
@@ -9910,7 +9910,7 @@
         <v>16</v>
       </c>
       <c r="B531" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D531" s="22"/>
       <c r="E531" s="12" t="s">
@@ -9936,24 +9936,24 @@
         <v>16</v>
       </c>
       <c r="B533" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D533" s="20"/>
       <c r="E533" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F533" s="20"/>
     </row>
     <row r="534" spans="1:6" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A534" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B534" s="40"/>
       <c r="D534" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="E534" s="42" t="s">
         <v>565</v>
-      </c>
-      <c r="E534" s="42" t="s">
-        <v>566</v>
       </c>
       <c r="F534" s="45"/>
     </row>
@@ -9962,11 +9962,11 @@
         <v>16</v>
       </c>
       <c r="B535" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D535" s="20"/>
       <c r="E535" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F535" s="20"/>
     </row>
@@ -9975,22 +9975,22 @@
         <v>16</v>
       </c>
       <c r="B536" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D536" s="20"/>
       <c r="E536" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F536" s="20"/>
     </row>
     <row r="537" spans="1:6" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A537" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B537" s="40"/>
       <c r="D537" s="45"/>
       <c r="E537" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F537" s="45"/>
     </row>
@@ -9999,13 +9999,13 @@
         <v>18</v>
       </c>
       <c r="D538" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F538" s="16" t="s">
         <v>571</v>
-      </c>
-      <c r="E538" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="F538" s="16" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="16.5" customHeight="1">
@@ -10013,11 +10013,11 @@
         <v>16</v>
       </c>
       <c r="B539" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D539" s="20"/>
       <c r="E539" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F539" s="20"/>
     </row>

--- a/moyusi/Keywords/Web/我的门店-订单.xlsx
+++ b/moyusi/Keywords/Web/我的门店-订单.xlsx
@@ -2508,7 +2508,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>

--- a/moyusi/Keywords/Web/我的门店-订单.xlsx
+++ b/moyusi/Keywords/Web/我的门店-订单.xlsx
@@ -2508,7 +2508,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
